--- a/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.806681859495611</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.454159592050397</v>
+        <v>6.454159592050399</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>14.03690803340773</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.850201281071175</v>
+        <v>4.289605381367601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1220065371154621</v>
+        <v>-0.2145428524993072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.41068710761951</v>
+        <v>2.121219800273706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.025711658664044</v>
+        <v>9.214818537915107</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.629342871039902</v>
+        <v>4.903393986257519</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.656368151114332</v>
+        <v>5.815366736337851</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.058700779443242</v>
+        <v>7.776934000643329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.589062574704453</v>
+        <v>3.499712143239541</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.573624762051349</v>
+        <v>5.314431477830612</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.42759801192062</v>
+        <v>13.78436412372352</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.273748886884427</v>
+        <v>7.851077833327729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.53028892058691</v>
+        <v>10.56148949401827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.7843158750715</v>
+        <v>19.58808079187703</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.18238161890928</v>
+        <v>14.3636584255007</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.74225513293352</v>
+        <v>13.31936035324376</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.16052402454604</v>
+        <v>14.76336819423072</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.593312200636726</v>
+        <v>9.48938361731344</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.97674966235314</v>
+        <v>10.86917894292267</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5429385573936794</v>
+        <v>0.5546045831074644</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09296355344555529</v>
+        <v>-0.08271810741474263</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3294193923263816</v>
+        <v>0.3135308545626952</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.528508294598319</v>
+        <v>1.384446634809057</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8398125659529847</v>
+        <v>0.8900190435234309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.211242002874064</v>
+        <v>0.9850267682186435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.495536400251293</v>
+        <v>1.406761494354164</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6524372690959096</v>
+        <v>0.660906880295813</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.04435401953596</v>
+        <v>0.9630357666153238</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.034387430171545</v>
+        <v>5.316295644666226</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.421520105695666</v>
+        <v>3.279522550391973</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.620724555007739</v>
+        <v>4.786167680211356</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>11.03393985548956</v>
+        <v>11.10580973135046</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.589953841755911</v>
+        <v>7.988105171216435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.166464799791962</v>
+        <v>8.002130991679245</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.84350553035727</v>
+        <v>5.46358744325974</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.542636437086173</v>
+        <v>3.691692174848376</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.432364387074282</v>
+        <v>4.307520209135979</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-5.626637672076476</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.465672676912222</v>
+        <v>8.465672676912217</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.988515545284318</v>
+        <v>-4.02272187515064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.558283994852342</v>
+        <v>-9.616419254218677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.202726659547151</v>
+        <v>4.516519681957408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.084701836047282</v>
+        <v>-4.801226399998165</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.669176690258922</v>
+        <v>-8.660697799821911</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.835888572833785</v>
+        <v>3.687716918281129</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.97627009072264</v>
+        <v>-3.177374264284095</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.087819109695834</v>
+        <v>-8.264819141378894</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.37330499094531</v>
+        <v>5.481656745300636</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.178213120384562</v>
+        <v>4.61230430842305</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.859155589649293</v>
+        <v>-2.468407507403895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.52317875167613</v>
+        <v>14.51721493106249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.764170037150412</v>
+        <v>3.423785377902651</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.801851820419149</v>
+        <v>-1.398479665820514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.95075143637135</v>
+        <v>11.90202803670317</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.71146208528484</v>
+        <v>2.507132232240777</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.191795607356558</v>
+        <v>-3.397260690829539</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.61820735779335</v>
+        <v>11.65228864802215</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.5399931756596309</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8124577659562982</v>
+        <v>0.8124577659562976</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3366638302255068</v>
+        <v>-0.3468467687089797</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7705138814776608</v>
+        <v>-0.775794183393445</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3612117055570605</v>
+        <v>0.371460269433189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3187395719748836</v>
+        <v>-0.3707579815034827</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6653624298592622</v>
+        <v>-0.6795417410220811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2882129806227673</v>
+        <v>0.2842951726546646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2658127385144696</v>
+        <v>-0.2646019896230133</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6664694444555277</v>
+        <v>-0.6808018779299756</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4492014769292315</v>
+        <v>0.4575988016894644</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.526861872512419</v>
+        <v>0.5803934147783533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3342372787332931</v>
+        <v>-0.2960139170056212</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.803226852398003</v>
+        <v>1.820663659901349</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4355128888237299</v>
+        <v>0.3955868931450064</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1642662882132982</v>
+        <v>-0.1528920886500165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.341792276196916</v>
+        <v>1.352955073615995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2986641611647269</v>
+        <v>0.2735878948057194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3396681364728072</v>
+        <v>-0.3641309106793416</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.292048018961189</v>
+        <v>1.300906534749564</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.085086198200232</v>
+        <v>3.035742369417719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.121469385656817</v>
+        <v>-3.314034361068276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.705727639422015</v>
+        <v>9.160523279818273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.688526202899817</v>
+        <v>2.865379211082218</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.552718983688959</v>
+        <v>-1.619296854339696</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.386875621482682</v>
+        <v>6.257739412018248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.949832956750415</v>
+        <v>3.970038631158556</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.610782221729205</v>
+        <v>-1.600909436993855</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.835259346575498</v>
+        <v>8.769643287033018</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.55398536028871</v>
+        <v>11.32572405811828</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.633084502639093</v>
+        <v>1.649835269409039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.50697835398313</v>
+        <v>17.80082012571863</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.68068775299384</v>
+        <v>10.34515867059852</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.397476217476482</v>
+        <v>4.695948500826471</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.45545798974551</v>
+        <v>13.5828843224606</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.539041238636619</v>
+        <v>9.630155702000815</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.157793498510195</v>
+        <v>2.402127471532171</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.20603214391687</v>
+        <v>14.5004475557707</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1258086639908789</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3.852810824582065</v>
+        <v>3.852810824582064</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.529609758876474</v>
+        <v>0.5923317821040266</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7807009213259156</v>
+        <v>-0.764210340765989</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.915046380656482</v>
+        <v>1.732560973862249</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4999802522076363</v>
+        <v>0.3958077426361155</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.373684454372827</v>
+        <v>-0.3807934550089707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.28892520753699</v>
+        <v>1.249755803421551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9593305943296621</v>
+        <v>0.8192376730772698</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4299226731880549</v>
+        <v>-0.4098717298306097</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.069568864218681</v>
+        <v>1.946155058669923</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.429015798461696</v>
+        <v>6.767143191289405</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.146191706109832</v>
+        <v>1.150575014394328</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>10.68352278678399</v>
+        <v>10.4522106435411</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.073920312196181</v>
+        <v>5.498784338023346</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.431315128085758</v>
+        <v>2.357305563846283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.781907049228223</v>
+        <v>7.956652695807998</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.462847720130673</v>
+        <v>4.449298797371128</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.02682254484452</v>
+        <v>1.248359780090267</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>6.833078945419001</v>
+        <v>6.87862804660778</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>7.586064377897825</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.093566458712072</v>
+        <v>1.093566458712073</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.503780083082811</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.07968517996641</v>
+        <v>-1.934408179380912</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8275140106171655</v>
+        <v>1.557965338595935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.199244410528255</v>
+        <v>-1.10888282523161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.249887529324799</v>
+        <v>3.510452749010268</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.219347700074196</v>
+        <v>3.628502024875262</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.788810475693165</v>
+        <v>-1.988551713854445</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.651428328135327</v>
+        <v>1.912791113191301</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.441702704341572</v>
+        <v>3.555785394436371</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6611761436263222</v>
+        <v>-0.7667395318805904</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.010468664795193</v>
+        <v>5.185915957463897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.49050183600138</v>
+        <v>9.467977771167398</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.35459195970903</v>
+        <v>7.729124521841787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.46350083518617</v>
+        <v>11.65372729834163</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.42684551971428</v>
+        <v>11.87757208633588</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.458019715795296</v>
+        <v>4.467233001154455</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.382937121078399</v>
+        <v>7.311710053439486</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.481948502615326</v>
+        <v>9.28886006314873</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.740005375322297</v>
+        <v>4.7911020914134</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.305158638897031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1881446873763029</v>
+        <v>0.1881446873763031</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7932067439075644</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2885676724424406</v>
+        <v>-0.2879810917260447</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0930621432179915</v>
+        <v>0.1901943362764463</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.201022736840355</v>
+        <v>-0.2068084825077103</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3777482132080387</v>
+        <v>0.4321539095108609</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4110994668860897</v>
+        <v>0.4657449513353206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2464306745109914</v>
+        <v>-0.2581454429206043</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2361691430408739</v>
+        <v>0.2501254343143446</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4897521686880305</v>
+        <v>0.4813773036238914</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1103028032948471</v>
+        <v>-0.1159768960217905</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.316696789696801</v>
+        <v>1.392688592877849</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.544612061406299</v>
+        <v>2.313459900607681</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.91858530664328</v>
+        <v>1.937203937156965</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.721138839768673</v>
+        <v>2.880434254262264</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.085266881725464</v>
+        <v>2.862914767699353</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.076288868213389</v>
+        <v>1.147616618335805</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.664443266769887</v>
+        <v>1.613063790516198</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.037658766748669</v>
+        <v>2.075585454738501</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.035794696347984</v>
+        <v>1.02597969397586</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.438785255987643</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.028481561966267</v>
+        <v>-2.028481561966265</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.610418236896646</v>
@@ -1511,7 +1511,7 @@
         <v>-4.47941590896916</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.02205715664754</v>
+        <v>-2.022057156647539</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.24973283018279</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.868621796446582</v>
+        <v>3.747391116100842</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.522314881944857</v>
+        <v>-7.089067208658589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.799682378488888</v>
+        <v>-6.931811977050561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.277322623672832</v>
+        <v>1.313451003219884</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.87323199832447</v>
+        <v>-10.51330152204082</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.574923262387104</v>
+        <v>-7.849590998904893</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.974876668219064</v>
+        <v>5.1591827918674</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.579783657575696</v>
+        <v>-7.226347788764288</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.637512417779831</v>
+        <v>-5.761188764203512</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.97905256427861</v>
+        <v>18.20398484027603</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.381685414701725</v>
+        <v>3.88456012027938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.483467749502086</v>
+        <v>2.837179077198844</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.96389443504845</v>
+        <v>16.48766020322499</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.352491919079666</v>
+        <v>1.186957726526787</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.103961954992766</v>
+        <v>2.90856409360251</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.61690130894653</v>
+        <v>15.30509893687243</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.034315930626962</v>
+        <v>1.038343414212452</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.770537894166886</v>
+        <v>1.543040714449523</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1455130232218832</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2051525642226169</v>
+        <v>-0.2051525642226167</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7449668933580584</v>
@@ -1616,7 +1616,7 @@
         <v>-0.3472290665719241</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.156742984649394</v>
+        <v>-0.1567429846493939</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8983074815514731</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2747706624996236</v>
+        <v>0.2383570333065606</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5279792796404211</v>
+        <v>-0.5667438453692419</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5612981703184202</v>
+        <v>-0.5623836666138181</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1242758957930603</v>
+        <v>0.07865942693050927</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6494140063235074</v>
+        <v>-0.648786115051908</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4512934977105354</v>
+        <v>-0.4630141668667977</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3771342380922365</v>
+        <v>0.3644786173657326</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5346173985688186</v>
+        <v>-0.5277709222938064</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4058318008717367</v>
+        <v>-0.4055555064889914</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.567693239197054</v>
+        <v>2.506778837308284</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6177840716325119</v>
+        <v>0.5732880198263866</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3559031749226212</v>
+        <v>0.4274673050929725</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.738693848990799</v>
+        <v>1.811667572077005</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1677602308510792</v>
+        <v>0.1372094105526544</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3285808341010514</v>
+        <v>0.337418730125418</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.76705973050527</v>
+        <v>1.697077121351624</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1264874310140421</v>
+        <v>0.1161565811963059</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1913118884357751</v>
+        <v>0.1850530162383376</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>8.852348417269866</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>20.73206767435851</v>
+        <v>20.7320676743585</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>8.210083386926669</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.553216747326515</v>
+        <v>3.14861252699111</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.12844384159865</v>
+        <v>5.433173636434477</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18.82495293270195</v>
+        <v>18.45361801446564</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.874365088663218</v>
+        <v>5.704682311925826</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.43730005326592</v>
+        <v>4.89254438185114</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.18501121506563</v>
+        <v>16.68690280160315</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.395872575369958</v>
+        <v>5.289132980018669</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.995445505915053</v>
+        <v>6.129547726222595</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>18.62308670806015</v>
+        <v>18.95541570448148</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.919589400237379</v>
+        <v>10.1457262825605</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.24107521806973</v>
+        <v>13.39573526354995</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>28.1566445950702</v>
+        <v>27.90130691152254</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.72227034685728</v>
+        <v>14.74458239786046</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.48681685956412</v>
+        <v>13.80159251489548</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.7256331163353</v>
+        <v>25.40714071186325</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.06294766762128</v>
+        <v>11.18422749318423</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>12.08446227705454</v>
+        <v>12.13964271588818</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>25.42062065251734</v>
+        <v>25.47390950517246</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>3.008774591685406</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>7.046505120609581</v>
+        <v>7.046505120609576</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>3.708325380908241</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.6905035402912685</v>
+        <v>0.8611674142137202</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1.574507758561856</v>
+        <v>1.698607264878652</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5.707427494614443</v>
+        <v>5.805720123613554</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1.115272396944325</v>
+        <v>1.116583886655404</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7680502482634897</v>
+        <v>0.8140595610510528</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.980491149546515</v>
+        <v>3.126304653556379</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1.591059171356051</v>
+        <v>1.522506907684102</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.870326538187073</v>
+        <v>1.795904386940459</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5.354780467601345</v>
+        <v>5.342471360477688</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>20.37045344914638</v>
+        <v>20.33224545498523</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25.03984611939253</v>
+        <v>27.86577309383073</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>63.72556265655912</v>
+        <v>65.57069597251861</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>9.172294919268145</v>
+        <v>8.905628197696998</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8.241296742215209</v>
+        <v>8.478397522409429</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>17.54608349333339</v>
+        <v>16.35797761676214</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>8.493538726778239</v>
+        <v>8.10096182188566</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>9.671921235930695</v>
+        <v>8.919211924646788</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>19.72424945068006</v>
+        <v>21.3108225870911</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.044880332363283</v>
+        <v>-1.781136345063166</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.533272083450696</v>
+        <v>-4.574292125098602</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.479344519712738</v>
+        <v>5.378051133888821</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.654138437898783</v>
+        <v>-1.573422220608229</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.716993159010126</v>
+        <v>-3.638605060574206</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>7.990628126642648</v>
+        <v>8.302659648518484</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.241784545762938</v>
+        <v>-0.8688105938318123</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.039296771767609</v>
+        <v>-2.948067305406011</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.901606366030394</v>
+        <v>7.876106647849785</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.870143481442815</v>
+        <v>4.428675613546416</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.288055107092645</v>
+        <v>1.20609727158143</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12.79891196674202</v>
+        <v>12.51294382077376</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.874331323369983</v>
+        <v>4.688990756529892</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.595471356229972</v>
+        <v>2.669503597869893</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.05925543087081</v>
+        <v>15.11589300024822</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.475217119768462</v>
+        <v>3.426994689402997</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.073438428837354</v>
+        <v>1.316148103452322</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>13.02791856213435</v>
+        <v>12.87411060617368</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2334784991094997</v>
+        <v>-0.2227314413432842</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5318236825359277</v>
+        <v>-0.5212453158698579</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6482048332144413</v>
+        <v>0.612207304768226</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1893608316236755</v>
+        <v>-0.1734022459811086</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3986479931816464</v>
+        <v>-0.3866423241789358</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8068674583001736</v>
+        <v>0.842443239875773</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1487837690153657</v>
+        <v>-0.1009510354681581</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3518054271164607</v>
+        <v>-0.3573428725117448</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8987653401053605</v>
+        <v>0.9357295229303897</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7130429233606507</v>
+        <v>0.7771568402825986</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2340586583978332</v>
+        <v>0.2383521938683792</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.39902937925571</v>
+        <v>2.209221732424111</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7601720409976509</v>
+        <v>0.7452423585339135</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4021801919385355</v>
+        <v>0.4312643933472353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.443504679588625</v>
+        <v>2.475507755025771</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5115267159150796</v>
+        <v>0.5454619156080722</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1842024164461957</v>
+        <v>0.2025376092844098</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.053552796156584</v>
+        <v>2.02137146131607</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-2.620722409517083</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-1.646513018171014</v>
+        <v>-1.646513018171015</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.67903851729839</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.212150037538355</v>
+        <v>-3.240746725746123</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.490534472503088</v>
+        <v>-2.450931380079203</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.239469762429993</v>
+        <v>-3.479696855084481</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.047131834299805</v>
+        <v>-6.06281610491324</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.990115988840019</v>
+        <v>-5.845661175846967</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.784639520538928</v>
+        <v>-4.736442330991518</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.636148961948615</v>
+        <v>-3.842103567708689</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.992940130348195</v>
+        <v>-3.319945906661223</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.143217912772529</v>
+        <v>-2.989151637180936</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.701380368196361</v>
+        <v>2.614837733331458</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.505121547096614</v>
+        <v>3.362266432671332</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.548170454730272</v>
+        <v>2.351178719266503</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.08553404538810909</v>
+        <v>-0.02818692016104415</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.4039798674685708</v>
+        <v>0.4529500900255011</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.265881687569661</v>
+        <v>1.21812567227124</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.4555684322677862</v>
+        <v>0.5712815707994199</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.041523348111562</v>
+        <v>1.034609541093281</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.046264454336635</v>
+        <v>1.102674345916118</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.22465468448988</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1411430914096123</v>
+        <v>-0.1411430914096125</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1678074432714189</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.333503376544375</v>
+        <v>-0.3376960187270635</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.259248430261742</v>
+        <v>-0.2610045673709669</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3285401303723096</v>
+        <v>-0.3370980879709259</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.44867228815692</v>
+        <v>-0.4431583439328804</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4310017462333673</v>
+        <v>-0.44448816074396</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3486145134736851</v>
+        <v>-0.3490088729176167</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3390500199871114</v>
+        <v>-0.3414090460454961</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2659434485739319</v>
+        <v>-0.2995074560713704</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2798765185226129</v>
+        <v>-0.2758799454279155</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3963907072943184</v>
+        <v>0.4001503518460016</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5413937613733873</v>
+        <v>0.4976551215814208</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3815711723430936</v>
+        <v>0.3495976829817502</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.02664681110833421</v>
+        <v>0.005448060147003547</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.04208545807693108</v>
+        <v>0.04610969313443033</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1292621091480701</v>
+        <v>0.1287423705179594</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03862440887604682</v>
+        <v>0.06792112578547577</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1240403219846127</v>
+        <v>0.1167202947120851</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1137679010619245</v>
+        <v>0.1241958112906385</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>0.6687762982478127</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>6.457541064683757</v>
+        <v>6.45754106468376</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.182455053982348</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.571260814063222</v>
+        <v>1.521006615800888</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.8789311392780533</v>
+        <v>-0.9201515498671381</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>5.478397549917808</v>
+        <v>5.413303083822864</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.977802287137629</v>
+        <v>1.991085317078762</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.7048635752767076</v>
+        <v>-0.6170889333657307</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.024777173470468</v>
+        <v>5.076676817283714</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.168567024136805</v>
+        <v>2.221464311960428</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.4097381758926981</v>
+        <v>-0.4768923835939173</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>5.565307763846215</v>
+        <v>5.640514768099337</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.274531538384271</v>
+        <v>4.348836370611293</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.616570104818821</v>
+        <v>1.716349350771134</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>8.443462557340849</v>
+        <v>8.4666636500286</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.04948212467312</v>
+        <v>4.976744520035103</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.066035485821342</v>
+        <v>2.079006842572924</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.74205297029833</v>
+        <v>7.844157180860951</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.296546685224095</v>
+        <v>4.201174670800952</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.444708956137654</v>
+        <v>1.473711327605025</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>7.607265723158125</v>
+        <v>7.707800792236133</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.08315475932622317</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8029221048650359</v>
+        <v>0.8029221048650362</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.4322009587841483</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2178463376350431</v>
+        <v>0.2082810753178573</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.120990395027456</v>
+        <v>-0.1294270194613141</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.7451384454183413</v>
+        <v>0.7593551922774737</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2220773774433033</v>
+        <v>0.2370522800990407</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.08173528671295088</v>
+        <v>-0.07126063291418815</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5681472271051438</v>
+        <v>0.5652964782620634</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2760079674826403</v>
+        <v>0.2822277680976936</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.05058257689356245</v>
+        <v>-0.06293961240126615</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.700525919733504</v>
+        <v>0.7087476326740817</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.7108528750800603</v>
+        <v>0.6970393405075853</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2655698015771804</v>
+        <v>0.2821100404204378</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.431687547598665</v>
+        <v>1.424531067746269</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.6813034439727425</v>
+        <v>0.6804222624348443</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2896463765398892</v>
+        <v>0.2793188355695809</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.051677681644487</v>
+        <v>1.05976572605801</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.6147566829475886</v>
+        <v>0.594702950423458</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2105092982432977</v>
+        <v>0.2121994186016925</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.100717932415363</v>
+        <v>1.110889227082232</v>
       </c>
     </row>
     <row r="58">
